--- a/CaseAndFatalityDemographicsData/2021-05-21.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-05-21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.13.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.20.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB335E-14C9-4FEA-A5F6-356C90AF0FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A76DE-EC44-4602-BC8D-5B9D466AB2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4218" yWindow="684" windowWidth="17280" windowHeight="8994" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -574,11 +574,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.4993304530180147E-3</v>
+        <v>3.5083734019863955E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -586,11 +586,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7294524874302029E-2</v>
+        <v>1.7327326190386048E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -598,11 +598,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3765</v>
+        <v>3775</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.7563101644811645E-2</v>
+        <v>4.764068198740519E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -610,11 +610,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15728</v>
+        <v>15743</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.1986912251446474</v>
+        <v>0.19867741894774038</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -622,11 +622,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17254</v>
+        <v>17267</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21796912504105712</v>
+        <v>0.21791037241762262</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -634,11 +634,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15141</v>
+        <v>15148</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19127567649511104</v>
+        <v>0.19116849026363281</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -646,11 +646,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12773</v>
+        <v>12785</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16136082265848051</v>
+        <v>0.16134731634674845</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -658,11 +658,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4622</v>
+        <v>4626</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8389550013896258E-2</v>
+        <v>5.8380343012910306E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -670,11 +670,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9465373051365625E-2</v>
+        <v>3.9525990989285581E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -682,11 +682,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.397736173223174E-2</v>
+        <v>2.3978091596309897E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -694,11 +694,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5778569443391698E-2</v>
+        <v>1.5787680308938779E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -706,11 +706,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4571110942671618E-2</v>
+        <v>2.4583853910321939E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -722,7 +722,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.642285050152859E-4</v>
+        <v>1.6406062671159405E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -731,7 +731,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>79158</v>
+        <v>79239</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -748,7 +748,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -769,11 +769,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>26915</v>
+        <v>26953</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.34001617019126307</v>
+        <v>0.34014815936596876</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -781,11 +781,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51343</v>
+        <v>51387</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64861416407690953</v>
+        <v>0.64850641729451408</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -793,11 +793,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1369665731827485E-2</v>
+        <v>1.1345423339517158E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -806,7 +806,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>79158</v>
+        <v>79239</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>1.207711159958564E-2</v>
+        <v>1.2064766087406455E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -859,11 +859,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>13002</v>
+        <v>13013</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.1642537709391344</v>
+        <v>0.16422468733830564</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -871,11 +871,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28340</v>
+        <v>28372</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.35801814093332324</v>
+        <v>0.35805600777394969</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -883,11 +883,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>7.0870916395057984E-3</v>
+        <v>7.1303272378500484E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -895,11 +895,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>27646</v>
+        <v>27678</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.34925086535789179</v>
+        <v>0.34929769431719226</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -907,11 +907,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8653</v>
+        <v>8655</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.10931301953055914</v>
+        <v>0.10922651724529588</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -920,7 +920,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>79158</v>
+        <v>79239</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
@@ -937,7 +937,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -965,7 +965,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.4046352964783786E-4</v>
+        <v>1.3973729388749151E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -977,7 +977,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.4079462225343634E-4</v>
+        <v>2.3954964666427118E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -989,7 +989,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.6218521119694993E-4</v>
+        <v>6.5876152832674575E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -997,11 +997,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.0165546302799241E-3</v>
+        <v>5.0704675210604061E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1009,11 +1009,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.6775358683656066E-2</v>
+        <v>1.696809997205254E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1021,11 +1021,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2458</v>
+        <v>2481</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.932276512491221E-2</v>
+        <v>4.9526889447838063E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1033,11 +1033,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5610</v>
+        <v>5646</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11257148590348148</v>
+        <v>0.11270810875553959</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1045,11 +1045,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4698</v>
+        <v>4723</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.427109461222033E-2</v>
+        <v>9.4282748432946067E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1057,11 +1057,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6045</v>
+        <v>6082</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12130029096016856</v>
+        <v>0.12141174591767477</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1069,11 +1069,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6674</v>
+        <v>6710</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13392194240995284</v>
+        <v>0.1339481774264383</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1081,11 +1081,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6583</v>
+        <v>6615</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13209591652453095</v>
+        <v>0.13205174272367948</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1093,11 +1093,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16629</v>
+        <v>16681</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.33368114778769942</v>
+        <v>0.3329939713338923</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>49835</v>
+        <v>50094</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1156,11 +1156,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>20909</v>
+        <v>21015</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.4195645630580917</v>
+        <v>0.41951131872080488</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1168,11 +1168,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>28925</v>
+        <v>29078</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58041537072338723</v>
+        <v>0.58046871880863971</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>2.0066218521119694E-5</v>
+        <v>1.9962470555355931E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>49835</v>
+        <v>50094</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1234,11 +1234,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>2.1230059195344639E-2</v>
+        <v>2.1220106200343355E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1246,11 +1246,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5032</v>
+        <v>5062</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.1009732115982743</v>
+        <v>0.10105002595121172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1258,11 +1258,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>23154</v>
+        <v>23282</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.46461322363800539</v>
+        <v>0.46476623946979678</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1270,11 +1270,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.417879000702318E-3</v>
+        <v>5.4497544616121689E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1282,11 +1282,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>20298</v>
+        <v>20391</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.40730410354168756</v>
+        <v>0.40705473709426276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.6152302598575297E-4</v>
+        <v>4.591368227731864E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>49835</v>
+        <v>50094</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
